--- a/resources/experiment 1/metrics/R2/average time/Ictus.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Ictus.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.986165282439225</v>
+        <v>0.9872258258499474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.986165282439225</v>
+        <v>0.9863239322320441</v>
       </c>
       <c r="D3" t="n">
-        <v>0.986165282439225</v>
+        <v>0.9862409830551231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9888806447104846</v>
+        <v>0.9849128769530381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9888806447104846</v>
+        <v>0.9857990123122556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9888806447104846</v>
+        <v>0.98592957943929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9754429408662316</v>
+        <v>0.9888030457699664</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9754429408662316</v>
+        <v>0.9889989083236905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9754429408662316</v>
+        <v>0.9905120466406029</v>
       </c>
     </row>
   </sheetData>
